--- a/complaints_internet/storage_xlsx/dataset_internet.xlsx
+++ b/complaints_internet/storage_xlsx/dataset_internet.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
@@ -7970,6 +7970,1151 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>46C9AE1E3913D2F70E351A8946BF2C74</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, pre-configured sim, unable to access to internet;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>8661060316883858</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=d53c7a7e-c8d0-4634-a8b6-66ac2c3ab8d5, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>624042741270300</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>D45356110CCDEE6259F1367772BC65E1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>237663289463</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>3534861096393501</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>46C9AE1E3913D2F70E351A8946BF2C74</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, pre-configured sim, unable to access to internet;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>624042702533402</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>472C582453C2E0F104F47FDEC1B66E82</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>237669800046</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>QoS1</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>n-ada</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>qosProfile:QoS QoS1 is not good, Change to QoS-R7;actIMSIGprs:actIMSIGprs is false. Restart phone;isActiveIMSI:isActiveIMSI is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=6c962f61-dadc-4ce8-837c-ce83db4bec7d, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>624042741270300</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>D45356110CCDEE6259F1367772BC65E1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>237663289463</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>3534861096393501</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>89EEF312A9CAED641CB7C1F49B6583FC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>n-nor</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>3564350962767101</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/complaints_internet/storage_xlsx/dataset_internet.xlsx
+++ b/complaints_internet/storage_xlsx/dataset_internet.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
@@ -9115,6 +9115,4844 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=a78580ec-812a-4b1f-b981-a616897a086c, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=41ba5060-2207-4b81-9257-d81363d3e488, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>624042724227849</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>D062C234D5AD62A403A00CB60FE24699</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>237669595851</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>n-ada</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>3530006022078401</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=df9c6b19-d361-4fe3-b258-84873f6decf9, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=32cbbc58-c845-4961-a5a5-72267962c6ad, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=685c619c-fbd9-46bb-b372-5df146e159b1, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>624042746218253</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0C2BBD51763696778B797D49DDDAECF6</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>237669970749</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>n-swt</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>3539541199959978</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>46C9AE1E3913D2F70E351A8946BF2C74</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, pre-configured sim, unable to access to internet;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=4ddc46d1-c348-4249-90fe-2e8915ff498b, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>46C9AE1E3913D2F70E351A8946BF2C74</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, pre-configured sim, unable to access to internet;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>624042741622113</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>03198D53256F8812EC74932056CD943A</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>237660998529</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>8670660278072328</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=608e5d47-7cdf-49e9-8d29-0326959fa9db, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=ac3442bf-e25d-4794-8630-7b282bbc6057, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=f0d4b75a-770c-4491-ae9f-6c693bdfc971, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=de8632f9-7ab8-4db4-9629-d296686a54aa, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>89EEF312A9CAED641CB7C1F49B6583FC</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>n-nor</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>624042741461024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1225A2D7EFFD24D2A3234EF17A981CF4</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>237662165358</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>n-eneotest</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>8657870488913700</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is True in HLR;refPdpContextName:APN is n-eneotest, contact assistant;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>624042728481135</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>D1FA0D5492F7D0DADBC86B14A2685D61</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>237666164987</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>n-cen</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>0139900064458146</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>89EEF312A9CAED641CB7C1F49B6583FC</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>n-nor</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>89EEF312A9CAED641CB7C1F49B6583FC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>QoS1</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>n-nor</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>qosProfile:QoS QoS1 is not good, Change to QoS-R7;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>89EEF312A9CAED641CB7C1F49B6583FC</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>n-nor</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=53607979-f4f8-4209-9be3-82f03ae57687, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>624042715864108</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5F10AFA1458FC43E5717F2C97B16AF64</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>237668986543</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>n-exn</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>3520821056248878</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=01e6e4cb-a9af-4c85-b827-246d9f13f38a, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber;</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>624042706861716</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>AF27256FB4E097AD4DB83A32B4404A9D</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>237668511883</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>n-out</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>3515470933487301</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>89EEF312A9CAED641CB7C1F49B6583FC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>n-nor</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>46C9AE1E3913D2F70E351A8946BF2C74</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>b-connect</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN=b-connect, pre-configured sim, unable to access to internet;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/complaints_internet/storage_xlsx/dataset_internet.xlsx
+++ b/complaints_internet/storage_xlsx/dataset_internet.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
@@ -13953,6 +13953,514 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/complaints_internet/storage_xlsx/dataset_internet.xlsx
+++ b/complaints_internet/storage_xlsx/dataset_internet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="9585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9585" windowWidth="24000" xWindow="0" yWindow="1200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,16 +57,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y110"/>
+  <dimension ref="A1:Y153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
@@ -435,32 +435,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="5.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="8" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="6.5703125" bestFit="1" customWidth="1" min="4" max="5"/>
-    <col width="11" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="13.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" min="8" max="9"/>
-    <col width="7.140625" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="6.42578125" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="5.85546875" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="9" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="13.5703125" customWidth="1" min="18" max="18"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="8" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="21" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="7.140625" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="24.7109375" customWidth="1" min="24" max="24"/>
-    <col width="32.140625" bestFit="1" customWidth="1" min="25" max="25"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="5.85546875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="7"/>
+    <col bestFit="1" customWidth="1" max="5" min="4" width="6.5703125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="11"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="9" min="8" width="15.7109375"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="7.140625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="6.42578125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" width="5.85546875"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" width="9"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" width="7.28515625"/>
+    <col bestFit="1" customWidth="1" max="17" min="17" width="12.85546875"/>
+    <col customWidth="1" max="18" min="18" width="13.5703125"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="20" min="20" width="8"/>
+    <col bestFit="1" customWidth="1" max="21" min="21" width="10.85546875"/>
+    <col bestFit="1" customWidth="1" max="22" min="22" width="21"/>
+    <col bestFit="1" customWidth="1" max="23" min="23" width="7.140625"/>
+    <col customWidth="1" max="24" min="24" width="24.7109375"/>
+    <col bestFit="1" customWidth="1" max="25" min="25" width="32.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>imsi</t>
@@ -14461,8 +14461,5469 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is True in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is True in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is True in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is True in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is True in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>odbgprs:Barring GPRS is True in HLR;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>result:Everything is ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>result:no problem found;</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>result:no problem found;</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>624042740135541</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>6E74AEE4CF51FAA3D681BDB0A28AAD7F</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>237668512883</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>n-lit</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>8627720325341778</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>result:no problem found;</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN is n-test, contact assistant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;refPdpContextName:APN is n-test, contact assistant;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;refPdpContextName:APN is n-test, contact assistant;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>624042747392233</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>D178F9CFAEF7238CB7D9B75F95A50CD5</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>237664398097</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>result:no problem found;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>624042747392233</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>D178F9CFAEF7238CB7D9B75F95A50CD5</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>237664398097</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>result:no problem found;</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>624042747392233</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>D178F9CFAEF7238CB7D9B75F95A50CD5</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>237664398097</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN is n-test, contact assistant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN is n-test, contact assistant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>624042747392233</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>D178F9CFAEF7238CB7D9B75F95A50CD5</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>237664398097</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>n-internet</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>result:no problem found;</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;refPdpContextName:APN is n-test, contact assistant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>QoS1</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;qosProfile:QoS QoS1 is not good, Change to QoS-R7;</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>QoS1</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>qosProfile:QoS QoS1 is not good, Change to QoS-R7;</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>result:no problem found;</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;refPdpContextName:APN is n-test, contact assistant;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN is n-test, contact assistant;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>81FD6F7B423F4725B8F1C1E4FFDDCE93</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>QoS1</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>n-est</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>qosProfile:QoS QoS1 is not good -&gt; solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN is n-test, contact assistant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;refPdpContextName:APN is n-test, contact assistant;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>odbgprs:barring_gprs solved;refPdpContextName:APN is n-test, contact assistant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>624042747338277</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>E527F58799E4F4F41CCA7F2984EE4393</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>237663970749</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>8667090463861200</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN is n-test, contact assistant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>6FC8FE718D30FECCB528C3E2C803125F</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>QoS-R7</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>n-test</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>refPdpContextName:APN is n-test, contact assistant;actIMSIGprs:actIMSIGprs is false. Restart phone;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>